--- a/db/input national and state level worksheet.xlsx
+++ b/db/input national and state level worksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorri\OneDrive\Work\Aus Energy Model Paul Zeba\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\Work\Aus Energy Model Paul Zeba\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990505EE-2141-4083-A273-B7D3CDD43FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="National" sheetId="19" r:id="rId1"/>
@@ -29,7 +28,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'worksheet rows to keep natio'!$A$1:$AY$64</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'worksheet rows to keep states'!$A$1:$AU$72</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -206,7 +205,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0;\-0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -761,7 +760,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -848,6 +847,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1168,11 +1168,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857590CF-D9CA-4B99-BA3D-EDDE4A7DD0FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1347,7 +1347,7 @@
       <c r="Q3" s="30">
         <v>106.19660823010781</v>
       </c>
-      <c r="R3" s="31"/>
+      <c r="R3" s="70"/>
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
@@ -4334,7 +4334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19554E58-1783-438F-B91A-0D378A7964BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY64"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7723,14 +7723,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AY64" xr:uid="{116FDA92-B210-49D3-918C-914BA25D9897}"/>
+  <autoFilter ref="A1:AY64"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B2CDF-7E0B-4222-A60A-87A68A7B8896}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10992,13 +10992,13 @@
       <c r="R72" s="39"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AU72" xr:uid="{3F3496E8-C83B-485F-BE08-4E050AAC110C}"/>
+  <autoFilter ref="A1:AU72"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A41" workbookViewId="0">
@@ -14070,7 +14070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
@@ -17148,7 +17148,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -20207,7 +20207,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
@@ -23282,7 +23282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -26342,10 +26342,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -29402,7 +29402,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
@@ -32476,7 +32476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV72"/>
   <sheetViews>
     <sheetView topLeftCell="A61" workbookViewId="0">
@@ -35440,7 +35440,7 @@
         <v>0.67848900765213183</v>
       </c>
       <c r="H71" s="10">
-        <f t="shared" ref="G71:P71" si="18">(H13*1000000000)/(H70*1000000)</f>
+        <f t="shared" ref="H71:P71" si="18">(H13*1000000000)/(H70*1000000)</f>
         <v>0.67848900765213171</v>
       </c>
       <c r="I71" s="10">
